--- a/KeyValueDatabases.xlsx
+++ b/KeyValueDatabases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anthonys_Documents\Uni_Stuttgart\Forschungsprojekt\Key-Value-Datenspeichern-FP-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3F8B26-8501-4243-9997-12EA10F7A644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E8B937-A288-45C3-A2C1-0287799C0FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
   <si>
     <t>Vergleich von Key-Value Datenspeichern</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>Rocks DB*</t>
-  </si>
-  <si>
-    <t>Eigener Prozess (Strings in SSTables)</t>
   </si>
   <si>
     <t>Persistent (Write Ahead Log und Memtable) Embedded (basiert auf LevelDB)</t>
@@ -70,9 +64,6 @@
     <t>LevelDB</t>
   </si>
   <si>
-    <t>Eigener Prozess (Get, Put, Delete-Methoden)</t>
-  </si>
-  <si>
     <t>Persistent (on-disk, file based persistence database)</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
 Big Memory Go</t>
   </si>
   <si>
-    <t>Jcache API</t>
-  </si>
-  <si>
     <t>Persistent</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
 ehcache/ehcache3: Ehcache 3.x line (github.com)</t>
   </si>
   <si>
-    <t>MapDB*</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
@@ -133,12 +118,6 @@
     <t>Replication (riak.com)</t>
   </si>
   <si>
-    <t>SSBD</t>
-  </si>
-  <si>
-    <t>Unterstützt Redis und seine Clients - Jcache API</t>
-  </si>
-  <si>
     <t>Persistent (on-disk) + durch key expiration</t>
   </si>
   <si>
@@ -147,9 +126,6 @@
   <si>
     <t>07.10.2020
 ideawu/ssdb: SSDB - A fast NoSQL database, an alternative to Redis (github.com)</t>
-  </si>
-  <si>
-    <t>Voldermort</t>
   </si>
   <si>
     <t>Hash-Tabelle</t>
@@ -299,9 +275,6 @@
 https://dbmx.net/tokyocabinet/</t>
   </si>
   <si>
-    <t>Kyoto Carbinet  (Nachfolger von Tokyo Cabinet)</t>
-  </si>
-  <si>
     <t>C++ (C, Java, Lua, Perl, Python, Ruby)</t>
   </si>
   <si>
@@ -309,9 +282,6 @@
 https://dbmx.net/kyotocabinet/</t>
   </si>
   <si>
-    <t>Apache Hbase</t>
-  </si>
-  <si>
     <t>04.06.2021 https://github.com/apache/hbase</t>
   </si>
   <si>
@@ -367,54 +337,18 @@
     <t>Man kann mehrere Threads nutzen, aber wie bereits in Skalierbakeit angesprochen, basiert es auf die Java Collections</t>
   </si>
   <si>
-    <t>Skaliernbarkeit basiert auf die von Java Collection, durch beispielweise Threads</t>
-  </si>
-  <si>
-    <t>3 echt-zeit Replikationsmethoden mit Rocksplicator: 1. Async 2.Semi-sync 3. Sync</t>
-  </si>
-  <si>
-    <t>einfache Einbindung in ein Maven Projekt</t>
-  </si>
-  <si>
-    <t>mit Docker selbst eine image bauen/file pullen</t>
-  </si>
-  <si>
-    <t>möglich - mit Rocksplcator, automatisierte Cluster-management</t>
-  </si>
-  <si>
-    <t>mit CMake herunterladen und installieren</t>
-  </si>
-  <si>
     <t>Daten können stark komprimiert (weniger Speicherplatz Verbrauch)</t>
   </si>
   <si>
-    <t>Leistung sinkt wenn die Größe großer als RAM Kapazität ist</t>
-  </si>
-  <si>
     <t>Ehcache clustering</t>
   </si>
   <si>
-    <t>möglich - mit einem Terracotta Server</t>
-  </si>
-  <si>
-    <t>Cache Daten können replizierte werden, mit RMI, Jgroups, JMS, Cache Server</t>
-  </si>
-  <si>
     <t>kann auf mehreren Cores laufen lassen und die Workloads (z.B. IO-bound, in-memory, write-once) zu verteilen</t>
   </si>
   <si>
-    <t>kann auf mehreren Cores alufen lassen und in hunderte Caches/cluster-Caches mit Terracotta installiert werden</t>
-  </si>
-  <si>
     <t>kleines package (1755KB jar)</t>
   </si>
   <si>
-    <t>Production nur auf Linux - Linux VM erfordert, wenn man der Server in Windows laufen lassen will - sonst einfach von github pullen mit wenigen Commands</t>
-  </si>
-  <si>
-    <t>möglich - durch Redis protocol</t>
-  </si>
-  <si>
     <t>Master-Slave Zuweisung, ein Slave darf mehrere Masters haben</t>
   </si>
   <si>
@@ -430,65 +364,163 @@
     <t>https://ignite.apache.org/docs/latest/index</t>
   </si>
   <si>
-    <t>binaries als ZIP herunterladen, Docker, DEB/RPM package etc.</t>
-  </si>
-  <si>
-    <t>Kann auf tausenden Nodes skaliert</t>
-  </si>
-  <si>
     <t>Replication-Mode als Cache Operation wählen, um Daten auf alle Nodes zu replizieren</t>
   </si>
   <si>
-    <t>möglich - mit Cartridge Framework</t>
-  </si>
-  <si>
     <t>Mit Cartridge Daten auf verschiedenen Servers replizieren/splitten</t>
   </si>
   <si>
     <t>https://www.tarantool.io/en/doc/latest/</t>
   </si>
   <si>
-    <t>horizontale Skalierung auf mehreren Nodes mit vshard Module</t>
-  </si>
-  <si>
-    <t>Docker/offizielles package manager</t>
-  </si>
-  <si>
-    <t>möglich - Nodes können hinzugefügt, ersetzt und gelöscht</t>
-  </si>
-  <si>
-    <t>Daten auf Nodes replizieren</t>
-  </si>
-  <si>
-    <t>möglich - Auto-Clustering (Daten bzw. Services automatisch auf Nodes verteilt)</t>
-  </si>
-  <si>
     <t>https://www.couchbase.com/multi-dimensional-scalability-overview</t>
   </si>
   <si>
     <t xml:space="preserve">Multi-dimensional Scaling - Nodes dürfen nach Typ separat skaliert werden </t>
   </si>
   <si>
-    <t>Daten auf mehreren Servers shard-en bzw. presharding für zukunftiges Bedarf</t>
-  </si>
-  <si>
-    <t>möglich - Auto-Clustering</t>
-  </si>
-  <si>
-    <t>Daten automatisch auf mehreren Nodes ge-sharded</t>
-  </si>
-  <si>
-    <t>kleines package (2401KB)/Docker/Cloud Servers</t>
-  </si>
-  <si>
     <t>MSI File (Windows), Apt (Linux), Docker, Vmware, Cloud Servers (z.B. Amazon Web Services, Microsoft Azure) usw.</t>
+  </si>
+  <si>
+    <t>Strings in SSTables</t>
+  </si>
+  <si>
+    <t>mit Docker selbst eine image bauen/file pullen, Alternative: direkt einbinden z.B als Maven Dependency</t>
+  </si>
+  <si>
+    <t>3 echt-Zeit Replikationsmethoden mit Rocksplicator: 1. Asynchrone 2.Semi-synchrone 3. Synchrone, Hybrid pull-push replication</t>
+  </si>
+  <si>
+    <t>Nicht möglich
+- nur mit Rocksreplicator (letzter Commit 13.06.2021)</t>
+  </si>
+  <si>
+    <t>Bibliothek (mit GET, PUT, DELETE)</t>
+  </si>
+  <si>
+    <t>mit CMake herunterladen und installieren, Alternative: als Maven Dependency</t>
+  </si>
+  <si>
+    <t>wie in RocksDB ist hier ein weiteres Projekt notwendig (level-replicator letzter Commit: 2015)</t>
+  </si>
+  <si>
+    <t>Leistung sinkt, wenn die Größe die RAM Kapazität überschreitet</t>
+  </si>
+  <si>
+    <t>möglich - mit einem Terracotta Server, Automatische Element "Versioning" funktioniert nur im unclustered MemoryStore cache</t>
+  </si>
+  <si>
+    <t>Cache Daten können repliziert werden, mit RMI, Jgroups, JMS, Cache Server (auch hier Empfehlung mit Terracotta Server)</t>
+  </si>
+  <si>
+    <t>kann auf mehreren Cores laufen lassen und in hunderte Caches/Cluster-Caches mit Terracotta installiert werden</t>
+  </si>
+  <si>
+    <t>Skalierbarkeit basiert auf die von Java Collection, durch beispielweise Threads</t>
+  </si>
+  <si>
+    <t>möglich - Nodes können hinzugefügt, ersetzt und gelöscht (Consistent Ha</t>
+  </si>
+  <si>
+    <t>Hoch, beispielsweise für Windows zusätzliche Virtualisierung (kann sich auch auf die Performance aufwirken)</t>
+  </si>
+  <si>
+    <t>Unterstützt Redis und seine Clients - JCache API</t>
+  </si>
+  <si>
+    <t>SSDB</t>
+  </si>
+  <si>
+    <t>Production nur auf Linux - Linux VM erfordert, wenn man der Server in Windows laufen lassen will - sonst einfach von Github pullen mit wenigen CommandsFür Windows nicht geeignet: Virtuelle Maschine wird benötigt, Für Linux: dependency von gcc, gcc-c++, autotool, autoconf, automake
+Official Java Client (2017)</t>
+  </si>
+  <si>
+    <t>möglich - durch Redis protocol (zusätzliche Installation von twemproxy (nutcracker))</t>
+  </si>
+  <si>
+    <t>Voldemort</t>
+  </si>
+  <si>
+    <t>Consistent Hashing, Rebalancing</t>
+  </si>
+  <si>
+    <t>Consistent Hashing, aber keine Buckets wie in Riak
+multi-version concurrency control (MVCC) for updates</t>
+  </si>
+  <si>
+    <t>both reads and writes skalieren horizontal</t>
+  </si>
+  <si>
+    <t>für Clustermanagement wieder VM notwendig</t>
+  </si>
+  <si>
+    <t>es existieren Clients (z.B Java (letzter Commit: 09.06.2021))</t>
+  </si>
+  <si>
+    <t>Binaries als ZIP herunterladen, Docker, DEB/RPM package etc.</t>
+  </si>
+  <si>
+    <t>Kann auf tausende Nodes skaliert</t>
+  </si>
+  <si>
+    <t>horizontale Skalierung auf mehreren Nodes mit vshard Module (load balancing via built-in automatic sharding)</t>
+  </si>
+  <si>
+    <t>Cross Data Replication (unidirektional, bidirektional)</t>
+  </si>
+  <si>
+    <t>Default: asynchronous Replikation, synchrone kann aktiviert werden</t>
+  </si>
+  <si>
+    <t>Rocks DB</t>
+  </si>
+  <si>
+    <t>MapDB</t>
+  </si>
+  <si>
+    <t>Kyoto Cabinet  (Nachfolger von Tokyo Cabinet)</t>
+  </si>
+  <si>
+    <t>Apache HBase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">möglich - Auto-Clustering (Daten bzw. Services automatisch auf Nodes verteilt), Masterless, asynchronous, and geo-aware clustering, Möglichkeit, Couchbase CE Cluster zu erstellen. Dafür muss der Couchbase Serve auf verschiedenen Knoten erstellt werden. Hierfür gibt es eine Web UI, mit der man Cluster erstellen kann und bereits existierende Cluster zusammenfügen kann. https://docs.couchbase.com/tutorials/getting-started-ce/setup-cluster/tutorial_en.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">möglich - mit Cartridge Framework, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker/offizielles package manager, hoch (je nachdem auf Clustermanagemnt erforderlich), Python: Tarantool modul (python3). Verbindung mit Tarantool server (Lokal oder mit Docker) </t>
+  </si>
+  <si>
+    <t>https://www.quora.com/How-scalable-is-Redis                                            Partitioning:
+Since the data is in key-value format, its easy to distribute them into different partitions. In this way, we don't have to rely on a single computer. Same time, the overall capacity of Redis instance is equal to the number of machines in the cluster (i.e., it can make use of complete resources in your cluster).
+Replication:
+Redis follows master-slave replication, that means you can have one master and many slaves (and each slave can have slaves - like a graph). It allows distributing the load across machines and making use of memory of all the machines in the cluster (also shared bandwidth).
+Failover:
+Redis Sentinal helps to manage Redis instances. If a master goes down, Sentinal automatically starts a process that can promote Slave node into Master.
+Also, it updates the clients to use new master instead of the old.
+Note: Redis configurations are eventually-consistent.
+Connections:
+Redis uses multiplexing and non-blocking I/O techniques to handle incoming connections. It just increases the availability of the Redis instance.
+Recovery:
+One of the major problem with large scale is, How to recover incase of failover. Redis Persistence can address this. The RDB persistence performs point-in-time snapshots of your dataset at specified intervals. These snapshots are completely configurable and can be transferred to different datacenter for recovery purposes.</t>
+  </si>
+  <si>
+    <t>Daten automatisch auf mehreren Nodes ge-sharded, "built-in replication": https://redis.io/topics/replication: Exakte Kopien von Instanzen können erstellt werden, welche sich automatisch mit dem master verbinden</t>
+  </si>
+  <si>
+    <t>kleines package (2401KB)/Docker/Cloud Servers, Für Java: Redis Java driver + Verbindung zum Redis Server</t>
+  </si>
+  <si>
+    <t>möglich - Auto-Clustering, Daten werden automatisch über mehrere Redis-knoten geteilt. Datensätze werden automatische über mehrere Knoten gesplittet. Operationen können weitergeführt werden, auch wenn eine Teilmenge von Knoten fehlschlagen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,8 +550,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,37 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,10 +590,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -593,52 +608,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,8 +644,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>991720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1021,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53819EDE-CF27-4B86-AEAB-051F92A3B4AB}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,500 +1038,520 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="K14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="E19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="D20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1586,8 +1580,10 @@
     <hyperlink ref="F9" r:id="rId23" xr:uid="{0040655E-7B4A-40E3-B7FC-665157DCB05F}"/>
     <hyperlink ref="F12" r:id="rId24" xr:uid="{C6B2DCFA-F793-40CB-8A11-0B6C09B10D08}"/>
     <hyperlink ref="F13" r:id="rId25" xr:uid="{BBEEB0EE-E2E3-459F-9E79-0FB80E4EBE96}"/>
+    <hyperlink ref="J15" r:id="rId26" display="https://www.quora.com/How-scalable-is-Redis                                            Partitioning:_x000a_Since the data is in key-value format, its easy to distribute them into different partitions. In this way, we don't have to rely on a single computer. Same time, the overall capacity of Redis instance is equal to the number of machines in the cluster (i.e., it can make use of complete resources in your cluster)._x000a_Replication:_x000a_Redis follows master-slave replication, that means you can have one master and many slaves (and each slave can have slaves - like a graph). It allows distributing the load across machines and making use of memory of all the machines in the cluster (also shared bandwidth)._x000a_Failover:_x000a_Redis Sentinal helps to manage Redis instances. If a master goes down, Sentinal automatically starts a process that can promote Slave node into Master._x000a_Also, it updates the clients to use new master instead of the old._x000a_Note: Redis configurations are eventually-consistent._x000a_Connections:_x000a_Redis uses multiplexing and non-blocking I/O techniques to handle incoming connections. It just increases the availability of the Redis instance._x000a_Recovery:_x000a_One of the major problem with large scale is, How to recover incase of failover. Redis Persistence can address this. The RDB persistence performs point-in-time snapshots of your dataset at specified intervals. These snapshots are completely configurable and can be transferred to different datacenter for recovery purposes." xr:uid="{AE6EB149-477D-4377-A473-0485F04F51F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId27"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
--- a/KeyValueDatabases.xlsx
+++ b/KeyValueDatabases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anthonys_Documents\Uni_Stuttgart\Forschungsprojekt\Key-Value-Datenspeichern-FP-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E8B937-A288-45C3-A2C1-0287799C0FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83798B-F652-4977-A015-DB98AB769290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="147">
   <si>
     <t>Vergleich von Key-Value Datenspeichern</t>
   </si>
@@ -514,6 +514,27 @@
   </si>
   <si>
     <t>möglich - Auto-Clustering, Daten werden automatisch über mehrere Redis-knoten geteilt. Datensätze werden automatische über mehrere Knoten gesplittet. Operationen können weitergeführt werden, auch wenn eine Teilmenge von Knoten fehlschlagen.</t>
+  </si>
+  <si>
+    <t>make diagram for Test-verlauf</t>
+  </si>
+  <si>
+    <t>To-do:</t>
+  </si>
+  <si>
+    <t>definitely use: RocksDB, MapDB, RiakKV</t>
+  </si>
+  <si>
+    <t>write in Java</t>
+  </si>
+  <si>
+    <t>generate data on the go, not store raw data? - create data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decide what criteria to test </t>
+  </si>
+  <si>
+    <t>binary tree: nodes are hashed values, fixed 4-16KB of data</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53819EDE-CF27-4B86-AEAB-051F92A3B4AB}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,12 +1034,12 @@
     <col min="11" max="11" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1053,7 +1074,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>129</v>
       </c>
@@ -1085,7 +1106,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1150,7 +1171,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>130</v>
       </c>
@@ -1179,8 +1200,20 @@
       <c r="J7" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1211,8 +1244,17 @@
       <c r="J8" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="M8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>115</v>
       </c>
@@ -1244,7 +1286,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -1276,7 +1318,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1306,7 +1348,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1338,7 +1380,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1370,7 +1412,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="360" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1445,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -1435,7 +1477,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>

--- a/KeyValueDatabases.xlsx
+++ b/KeyValueDatabases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anthonys_Documents\Uni_Stuttgart\Forschungsprojekt\Key-Value-Datenspeichern-FP-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83798B-F652-4977-A015-DB98AB769290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EBD7BA-CFEF-4BD8-878E-7506245F9029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="154">
   <si>
     <t>Vergleich von Key-Value Datenspeichern</t>
   </si>
@@ -516,9 +516,6 @@
     <t>möglich - Auto-Clustering, Daten werden automatisch über mehrere Redis-knoten geteilt. Datensätze werden automatische über mehrere Knoten gesplittet. Operationen können weitergeführt werden, auch wenn eine Teilmenge von Knoten fehlschlagen.</t>
   </si>
   <si>
-    <t>make diagram for Test-verlauf</t>
-  </si>
-  <si>
     <t>To-do:</t>
   </si>
   <si>
@@ -528,13 +525,38 @@
     <t>write in Java</t>
   </si>
   <si>
-    <t>generate data on the go, not store raw data? - create data</t>
-  </si>
-  <si>
     <t xml:space="preserve">decide what criteria to test </t>
   </si>
   <si>
-    <t>binary tree: nodes are hashed values, fixed 4-16KB of data</t>
+    <t>https://github.com/brianfrankcooper/YCSB</t>
+  </si>
+  <si>
+    <t>Reference performance comparison</t>
+  </si>
+  <si>
+    <t>Properties Tested:</t>
+  </si>
+  <si>
+    <t>https://www.guru99.com/data-testing.html</t>
+  </si>
+  <si>
+    <t>binary tree: nodes are hashed values, fixed 4KB of data</t>
+  </si>
+  <si>
+    <t>one more library DB (like MapDB)</t>
+  </si>
+  <si>
+    <t>generate b-tree and store values directly into DB -- no need for random values</t>
+  </si>
+  <si>
+    <t>look for papers, similar to what we are doing</t>
+  </si>
+  <si>
+    <t>Datenbank Tabellen Testing -  Daten Validierung (Key gültig? Value richtig? Tabelle/Cluster erstellt?)
+Trigger Testing - Benötigte Zeit, Anzahl Operationen pro Sekunde (Schreiben, Löschen, Lesen/Queries -- INSERT, UPDATE(?), GET, DELETE)</t>
+  </si>
+  <si>
+    <t>See how we can use YCSB for our purpose</t>
   </si>
 </sst>
 </file>
@@ -611,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -633,6 +655,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,7 +689,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>1681</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>991720</xdr:rowOff>
     </xdr:to>
@@ -1016,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53819EDE-CF27-4B86-AEAB-051F92A3B4AB}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,14 +1057,19 @@
     <col min="8" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="57" customWidth="1"/>
+    <col min="26" max="26" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1073,8 +1103,11 @@
       <c r="M3" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>129</v>
       </c>
@@ -1105,8 +1138,20 @@
       <c r="J4" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1216,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>130</v>
       </c>
@@ -1201,19 +1246,19 @@
         <v>111</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="P7" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1245,16 +1290,22 @@
         <v>81</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="255" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>115</v>
       </c>
@@ -1285,8 +1336,10 @@
       <c r="J9" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="2"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -1318,7 +1371,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1348,7 +1401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1380,7 +1433,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1412,7 +1465,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="360" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="360" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1445,7 +1498,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -1477,7 +1530,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -1623,9 +1676,10 @@
     <hyperlink ref="F12" r:id="rId24" xr:uid="{C6B2DCFA-F793-40CB-8A11-0B6C09B10D08}"/>
     <hyperlink ref="F13" r:id="rId25" xr:uid="{BBEEB0EE-E2E3-459F-9E79-0FB80E4EBE96}"/>
     <hyperlink ref="J15" r:id="rId26" display="https://www.quora.com/How-scalable-is-Redis                                            Partitioning:_x000a_Since the data is in key-value format, its easy to distribute them into different partitions. In this way, we don't have to rely on a single computer. Same time, the overall capacity of Redis instance is equal to the number of machines in the cluster (i.e., it can make use of complete resources in your cluster)._x000a_Replication:_x000a_Redis follows master-slave replication, that means you can have one master and many slaves (and each slave can have slaves - like a graph). It allows distributing the load across machines and making use of memory of all the machines in the cluster (also shared bandwidth)._x000a_Failover:_x000a_Redis Sentinal helps to manage Redis instances. If a master goes down, Sentinal automatically starts a process that can promote Slave node into Master._x000a_Also, it updates the clients to use new master instead of the old._x000a_Note: Redis configurations are eventually-consistent._x000a_Connections:_x000a_Redis uses multiplexing and non-blocking I/O techniques to handle incoming connections. It just increases the availability of the Redis instance._x000a_Recovery:_x000a_One of the major problem with large scale is, How to recover incase of failover. Redis Persistence can address this. The RDB persistence performs point-in-time snapshots of your dataset at specified intervals. These snapshots are completely configurable and can be transferred to different datacenter for recovery purposes." xr:uid="{AE6EB149-477D-4377-A473-0485F04F51F9}"/>
+    <hyperlink ref="X4" r:id="rId27" xr:uid="{9BF6AB1B-E662-4576-905A-0F30A8D261CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId27"/>
-  <drawing r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId28"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/KeyValueDatabases.xlsx
+++ b/KeyValueDatabases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anthonys_Documents\Uni_Stuttgart\Forschungsprojekt\Key-Value-Datenspeichern-FP-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EBD7BA-CFEF-4BD8-878E-7506245F9029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE02A71-4515-41D0-A839-2A65BAF2B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
   <si>
     <t>Vergleich von Key-Value Datenspeichern</t>
   </si>
@@ -557,6 +557,19 @@
   </si>
   <si>
     <t>See how we can use YCSB for our purpose</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1. Datenbank starten
+2. Daten erzeugen
+3. Daten ins Datenbank schreiben/streamen (Test INSERT)
+(3.5. Data validation)
+4. Test GET
+5. Test UPDATE
+(5.5 Test DELETE)
+6. Datenbank herunterfahren</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53819EDE-CF27-4B86-AEAB-051F92A3B4AB}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1198,9 @@
       <c r="K5" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="Y5" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1303,6 +1319,9 @@
       </c>
       <c r="Q8" s="5" t="s">
         <v>153</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="255" x14ac:dyDescent="0.25">

--- a/KeyValueDatabases.xlsx
+++ b/KeyValueDatabases.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anthonys_Documents\Uni_Stuttgart\Forschungsprojekt\Key-Value-Datenspeichern-FP-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE02A71-4515-41D0-A839-2A65BAF2B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CEEE61-9754-4DE3-A5BD-7634C83DF618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
   <si>
     <t>Vergleich von Key-Value Datenspeichern</t>
   </si>
@@ -525,9 +526,6 @@
     <t>write in Java</t>
   </si>
   <si>
-    <t xml:space="preserve">decide what criteria to test </t>
-  </si>
-  <si>
     <t>https://github.com/brianfrankcooper/YCSB</t>
   </si>
   <si>
@@ -543,13 +541,7 @@
     <t>binary tree: nodes are hashed values, fixed 4KB of data</t>
   </si>
   <si>
-    <t>one more library DB (like MapDB)</t>
-  </si>
-  <si>
     <t>generate b-tree and store values directly into DB -- no need for random values</t>
-  </si>
-  <si>
-    <t>look for papers, similar to what we are doing</t>
   </si>
   <si>
     <t>Datenbank Tabellen Testing -  Daten Validierung (Key gültig? Value richtig? Tabelle/Cluster erstellt?)
@@ -557,9 +549,6 @@
   </si>
   <si>
     <t>See how we can use YCSB for our purpose</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>1. Datenbank starten
@@ -570,6 +559,22 @@
 5. Test UPDATE
 (5.5 Test DELETE)
 6. Datenbank herunterfahren</t>
+  </si>
+  <si>
+    <t>Zwischen-presentation</t>
+  </si>
+  <si>
+    <t>Look at papers, find what we can use (formats, sources, results)</t>
+  </si>
+  <si>
+    <t>Figure out how to solve our problems/how to find answers</t>
+  </si>
+  <si>
+    <t>1. Benchmarks vergleichen
+2. Papers vergleichen</t>
+  </si>
+  <si>
+    <t>H2Database - MVStore</t>
   </si>
 </sst>
 </file>
@@ -654,7 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -672,6 +676,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53819EDE-CF27-4B86-AEAB-051F92A3B4AB}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,400 +1124,404 @@
         <v>86</v>
       </c>
       <c r="Y3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="5" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="Y5" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="255" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="Q9" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="360" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="255" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="360" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>98</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1518,154 +1529,151 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G22" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1701,4 +1709,468 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId28"/>
   <drawing r:id="rId29"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFE27C2-1312-4A04-AF7F-1C5ECB1703A1}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" display="https://dbmx.net/tkrzw/" xr:uid="{DF73007F-F515-4520-ABD1-E0FE616DA734}"/>
+    <hyperlink ref="E18" r:id="rId2" display="https://github.com/hazelcast/hazelcast" xr:uid="{C759E358-5FA7-406D-B1A4-2D7EE8085E42}"/>
+    <hyperlink ref="H13" r:id="rId3" display="https://www.quora.com/How-scalable-is-Redis                                            Partitioning:_x000a_Since the data is in key-value format, its easy to distribute them into different partitions. In this way, we don't have to rely on a single computer. Same time, the overall capacity of Redis instance is equal to the number of machines in the cluster (i.e., it can make use of complete resources in your cluster)._x000a_Replication:_x000a_Redis follows master-slave replication, that means you can have one master and many slaves (and each slave can have slaves - like a graph). It allows distributing the load across machines and making use of memory of all the machines in the cluster (also shared bandwidth)._x000a_Failover:_x000a_Redis Sentinal helps to manage Redis instances. If a master goes down, Sentinal automatically starts a process that can promote Slave node into Master._x000a_Also, it updates the clients to use new master instead of the old._x000a_Note: Redis configurations are eventually-consistent._x000a_Connections:_x000a_Redis uses multiplexing and non-blocking I/O techniques to handle incoming connections. It just increases the availability of the Redis instance._x000a_Recovery:_x000a_One of the major problem with large scale is, How to recover incase of failover. Redis Persistence can address this. The RDB persistence performs point-in-time snapshots of your dataset at specified intervals. These snapshots are completely configurable and can be transferred to different datacenter for recovery purposes." xr:uid="{25CC01B7-3574-489A-818D-70D793877ADC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KeyValueDatabases.xlsx
+++ b/KeyValueDatabases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anthonys_Documents\Uni_Stuttgart\Forschungsprojekt\Key-Value-Datenspeichern-FP-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CEEE61-9754-4DE3-A5BD-7634C83DF618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD2C55-8E9E-4232-9EC2-8A2B34A06A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
+    <workbookView xWindow="1245" yWindow="8190" windowWidth="37155" windowHeight="12810" activeTab="1" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
   <si>
     <t>Vergleich von Key-Value Datenspeichern</t>
   </si>
@@ -575,6 +575,57 @@
   </si>
   <si>
     <t>H2Database - MVStore</t>
+  </si>
+  <si>
+    <t>WhiteDB</t>
+  </si>
+  <si>
+    <t>C API</t>
+  </si>
+  <si>
+    <t>Persistent (von RAM auf Festplatte)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>http://whitedb.org/</t>
+  </si>
+  <si>
+    <t>http://whitedb.org/tutorial.html</t>
+  </si>
+  <si>
+    <t>http://whitedb.org/install.html</t>
+  </si>
+  <si>
+    <t>Hängt von Größe der RAM ab</t>
+  </si>
+  <si>
+    <t>Nicht möglich, nur 1 Instanz in shared memory/RAM ist</t>
+  </si>
+  <si>
+    <t>MVStore</t>
+  </si>
+  <si>
+    <t>Map (Java)</t>
+  </si>
+  <si>
+    <t>https://www.h2database.com/html/mvstore.html</t>
+  </si>
+  <si>
+    <t>möglich: braucht aber zusätzliche Computer</t>
+  </si>
+  <si>
+    <t>mit neue Cluster?</t>
+  </si>
+  <si>
+    <t>"For fully scalable concurrent write operations to a map (in-memory and to disk),
+the map could be split into multiple maps in different stores ('sharding').
+The plan is to add such a mechanism later when needed."</t>
+  </si>
+  <si>
+    <t>https://github.com/h2database/h2database/blob/master/h2/src/docsrc/html/mvstore.html
+315-317</t>
   </si>
 </sst>
 </file>
@@ -651,16 +702,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1061,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53819EDE-CF27-4B86-AEAB-051F92A3B4AB}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G21:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,40 +1176,40 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y4" s="2" t="s">
@@ -1172,34 +1220,34 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1210,318 +1258,318 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="255" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>90</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="8"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="2" t="s">
         <v>152</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="360" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>98</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1529,151 +1577,211 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G21" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1704,19 +1812,20 @@
     <hyperlink ref="F13" r:id="rId25" xr:uid="{BBEEB0EE-E2E3-459F-9E79-0FB80E4EBE96}"/>
     <hyperlink ref="J15" r:id="rId26" display="https://www.quora.com/How-scalable-is-Redis                                            Partitioning:_x000a_Since the data is in key-value format, its easy to distribute them into different partitions. In this way, we don't have to rely on a single computer. Same time, the overall capacity of Redis instance is equal to the number of machines in the cluster (i.e., it can make use of complete resources in your cluster)._x000a_Replication:_x000a_Redis follows master-slave replication, that means you can have one master and many slaves (and each slave can have slaves - like a graph). It allows distributing the load across machines and making use of memory of all the machines in the cluster (also shared bandwidth)._x000a_Failover:_x000a_Redis Sentinal helps to manage Redis instances. If a master goes down, Sentinal automatically starts a process that can promote Slave node into Master._x000a_Also, it updates the clients to use new master instead of the old._x000a_Note: Redis configurations are eventually-consistent._x000a_Connections:_x000a_Redis uses multiplexing and non-blocking I/O techniques to handle incoming connections. It just increases the availability of the Redis instance._x000a_Recovery:_x000a_One of the major problem with large scale is, How to recover incase of failover. Redis Persistence can address this. The RDB persistence performs point-in-time snapshots of your dataset at specified intervals. These snapshots are completely configurable and can be transferred to different datacenter for recovery purposes." xr:uid="{AE6EB149-477D-4377-A473-0485F04F51F9}"/>
     <hyperlink ref="X4" r:id="rId27" xr:uid="{9BF6AB1B-E662-4576-905A-0F30A8D261CC}"/>
+    <hyperlink ref="K22" r:id="rId28" xr:uid="{DEF160FC-0BF2-45C7-90A1-913E51ACA468}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId28"/>
-  <drawing r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId29"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFE27C2-1312-4A04-AF7F-1C5ECB1703A1}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,418 +1867,428 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
+      <c r="E18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" display="https://dbmx.net/tkrzw/" xr:uid="{DF73007F-F515-4520-ABD1-E0FE616DA734}"/>
-    <hyperlink ref="E18" r:id="rId2" display="https://github.com/hazelcast/hazelcast" xr:uid="{C759E358-5FA7-406D-B1A4-2D7EE8085E42}"/>
-    <hyperlink ref="H13" r:id="rId3" display="https://www.quora.com/How-scalable-is-Redis                                            Partitioning:_x000a_Since the data is in key-value format, its easy to distribute them into different partitions. In this way, we don't have to rely on a single computer. Same time, the overall capacity of Redis instance is equal to the number of machines in the cluster (i.e., it can make use of complete resources in your cluster)._x000a_Replication:_x000a_Redis follows master-slave replication, that means you can have one master and many slaves (and each slave can have slaves - like a graph). It allows distributing the load across machines and making use of memory of all the machines in the cluster (also shared bandwidth)._x000a_Failover:_x000a_Redis Sentinal helps to manage Redis instances. If a master goes down, Sentinal automatically starts a process that can promote Slave node into Master._x000a_Also, it updates the clients to use new master instead of the old._x000a_Note: Redis configurations are eventually-consistent._x000a_Connections:_x000a_Redis uses multiplexing and non-blocking I/O techniques to handle incoming connections. It just increases the availability of the Redis instance._x000a_Recovery:_x000a_One of the major problem with large scale is, How to recover incase of failover. Redis Persistence can address this. The RDB persistence performs point-in-time snapshots of your dataset at specified intervals. These snapshots are completely configurable and can be transferred to different datacenter for recovery purposes." xr:uid="{25CC01B7-3574-489A-818D-70D793877ADC}"/>
+    <hyperlink ref="H13" r:id="rId1" display="https://www.quora.com/How-scalable-is-Redis                                            Partitioning:_x000a_Since the data is in key-value format, its easy to distribute them into different partitions. In this way, we don't have to rely on a single computer. Same time, the overall capacity of Redis instance is equal to the number of machines in the cluster (i.e., it can make use of complete resources in your cluster)._x000a_Replication:_x000a_Redis follows master-slave replication, that means you can have one master and many slaves (and each slave can have slaves - like a graph). It allows distributing the load across machines and making use of memory of all the machines in the cluster (also shared bandwidth)._x000a_Failover:_x000a_Redis Sentinal helps to manage Redis instances. If a master goes down, Sentinal automatically starts a process that can promote Slave node into Master._x000a_Also, it updates the clients to use new master instead of the old._x000a_Note: Redis configurations are eventually-consistent._x000a_Connections:_x000a_Redis uses multiplexing and non-blocking I/O techniques to handle incoming connections. It just increases the availability of the Redis instance._x000a_Recovery:_x000a_One of the major problem with large scale is, How to recover incase of failover. Redis Persistence can address this. The RDB persistence performs point-in-time snapshots of your dataset at specified intervals. These snapshots are completely configurable and can be transferred to different datacenter for recovery purposes." xr:uid="{25CC01B7-3574-489A-818D-70D793877ADC}"/>
+    <hyperlink ref="I18" r:id="rId2" xr:uid="{A5CD4ADF-4038-41BC-8106-D01C2C90DE07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KeyValueDatabases.xlsx
+++ b/KeyValueDatabases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anthonys_Documents\Uni_Stuttgart\Forschungsprojekt\Key-Value-Datenspeichern-FP-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD2C55-8E9E-4232-9EC2-8A2B34A06A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FD6E71-B347-4E4B-A22E-4FFA6E1551BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="8190" windowWidth="37155" windowHeight="12810" activeTab="1" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{92F50C3F-08B8-4F3D-A3AD-7E997F6070BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="175">
   <si>
     <t>Vergleich von Key-Value Datenspeichern</t>
   </si>
@@ -626,6 +626,12 @@
   <si>
     <t>https://github.com/h2database/h2database/blob/master/h2/src/docsrc/html/mvstore.html
 315-317</t>
+  </si>
+  <si>
+    <t>mit installer/von zip Datei unzippen</t>
+  </si>
+  <si>
+    <t>es existieren Clients (z.B Java (letzter Commit: 09.06.2021)), odermit Docker selbst eine image bauen/file pullen</t>
   </si>
 </sst>
 </file>
@@ -1822,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFE27C2-1312-4A04-AF7F-1C5ECB1703A1}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,9 +1844,10 @@
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1866,64 +1873,67 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1932,363 +1942,104 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="229.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1" display="https://www.quora.com/How-scalable-is-Redis                                            Partitioning:_x000a_Since the data is in key-value format, its easy to distribute them into different partitions. In this way, we don't have to rely on a single computer. Same time, the overall capacity of Redis instance is equal to the number of machines in the cluster (i.e., it can make use of complete resources in your cluster)._x000a_Replication:_x000a_Redis follows master-slave replication, that means you can have one master and many slaves (and each slave can have slaves - like a graph). It allows distributing the load across machines and making use of memory of all the machines in the cluster (also shared bandwidth)._x000a_Failover:_x000a_Redis Sentinal helps to manage Redis instances. If a master goes down, Sentinal automatically starts a process that can promote Slave node into Master._x000a_Also, it updates the clients to use new master instead of the old._x000a_Note: Redis configurations are eventually-consistent._x000a_Connections:_x000a_Redis uses multiplexing and non-blocking I/O techniques to handle incoming connections. It just increases the availability of the Redis instance._x000a_Recovery:_x000a_One of the major problem with large scale is, How to recover incase of failover. Redis Persistence can address this. The RDB persistence performs point-in-time snapshots of your dataset at specified intervals. These snapshots are completely configurable and can be transferred to different datacenter for recovery purposes." xr:uid="{25CC01B7-3574-489A-818D-70D793877ADC}"/>
-    <hyperlink ref="I18" r:id="rId2" xr:uid="{A5CD4ADF-4038-41BC-8106-D01C2C90DE07}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{A5CD4ADF-4038-41BC-8106-D01C2C90DE07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
